--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\PIX\PIXFramework\REFramework_Queue-main\REFramework_Queue-main_NEWRG\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBZalesky\Documents\GitHub\SBZalesky_PIX_uiRG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E587F2-308F-48EA-8D92-3778C7112333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CCF80-CFA4-44A7-8B31-D1F14CA8C7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Имя</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>https://rivegauche.ru/</t>
+  </si>
+  <si>
+    <t>Credential</t>
+  </si>
+  <si>
+    <t>SBZ_DB_Cred</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -266,7 +272,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -551,7 +556,7 @@
   <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -691,7 +696,7 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -700,10 +705,16 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
